--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351366.0240062981</v>
+        <v>-354263.452263935</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.21008304703098</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="G2" t="n">
-        <v>16.03944114782488</v>
+        <v>13.8871982085107</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.21008304703098</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>2.152242939314206</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16.03944114782488</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703098</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="X3" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>16.0394411478249</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.21008304703098</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.21008304703098</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.21008304703098</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>16.03944114782491</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.03944114782488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F5" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>49.79500702712463</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,64 +984,64 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>46.49613729883792</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>43.85944218949135</v>
+      </c>
+      <c r="Y6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>47.15831191777808</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.65546709791185</v>
+      </c>
+      <c r="G7" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.62325037119973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,58 +1133,58 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>69.11209925255308</v>
-      </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.38870434448781</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>29.63673178547965</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>78.48408095183349</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T9" t="n">
-        <v>71.94275483141207</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>8.037790645995694</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="C10" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="D10" t="n">
-        <v>51.82194179032386</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>51.82194179032386</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>219.7549177952608</v>
+        <v>280.3840936224885</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>64.94064913120788</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740602</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429425</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>40.24165505495353</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>16.98667817487114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512079</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853815</v>
+        <v>12.76005920853822</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>16.16843350471225</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942143</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.2259505544141</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187949</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2011,7 +2011,7 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707169</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2716,22 +2716,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659976</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.810845670716</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
         <v>186.4872700401421</v>
@@ -2776,7 +2776,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998809</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
@@ -3013,7 +3013,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998809</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943545</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707158</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.44630890829464</v>
+        <v>52.27232614131069</v>
       </c>
       <c r="C2" t="n">
-        <v>54.44630890829464</v>
+        <v>52.27232614131069</v>
       </c>
       <c r="D2" t="n">
-        <v>54.44630890829464</v>
+        <v>52.27232614131069</v>
       </c>
       <c r="E2" t="n">
-        <v>36.05228562846537</v>
+        <v>52.27232614131069</v>
       </c>
       <c r="F2" t="n">
-        <v>17.6582623486361</v>
+        <v>33.87830286148138</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762478</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="J2" t="n">
-        <v>19.48478886032314</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="K2" t="n">
-        <v>19.48478886032314</v>
+        <v>19.48478886032318</v>
       </c>
       <c r="L2" t="n">
-        <v>19.48478886032314</v>
+        <v>28.46417319695826</v>
       </c>
       <c r="M2" t="n">
-        <v>37.51277107688381</v>
+        <v>46.49215541351896</v>
       </c>
       <c r="N2" t="n">
-        <v>55.54075329344447</v>
+        <v>64.52013763007966</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="T2" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="U2" t="n">
-        <v>72.84033218812391</v>
+        <v>54.44630890829473</v>
       </c>
       <c r="V2" t="n">
-        <v>72.84033218812391</v>
+        <v>54.44630890829473</v>
       </c>
       <c r="W2" t="n">
-        <v>54.44630890829464</v>
+        <v>54.44630890829473</v>
       </c>
       <c r="X2" t="n">
-        <v>54.44630890829464</v>
+        <v>52.27232614131069</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.44630890829464</v>
+        <v>52.27232614131069</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.05228562846537</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="C3" t="n">
-        <v>36.05228562846537</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="D3" t="n">
-        <v>36.05228562846537</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="E3" t="n">
-        <v>36.05228562846537</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="F3" t="n">
-        <v>36.05228562846537</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="G3" t="n">
-        <v>36.05228562846537</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="H3" t="n">
-        <v>19.85082992359175</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032314</v>
+        <v>18.75638553844194</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688381</v>
+        <v>36.78436775500263</v>
       </c>
       <c r="N3" t="n">
-        <v>44.26685867884787</v>
+        <v>54.81234997156334</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089540854</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829464</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829464</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829464</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="U3" t="n">
-        <v>54.44630890829464</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="V3" t="n">
-        <v>54.44630890829464</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="W3" t="n">
-        <v>54.44630890829464</v>
+        <v>54.44630890829473</v>
       </c>
       <c r="X3" t="n">
-        <v>36.05228562846537</v>
+        <v>36.05228562846543</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.05228562846537</v>
+        <v>19.85082992359179</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.24485320342102</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="C4" t="n">
-        <v>38.24485320342102</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="D4" t="n">
-        <v>19.85082992359175</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="E4" t="n">
-        <v>19.85082992359175</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="F4" t="n">
-        <v>19.85082992359175</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="G4" t="n">
-        <v>19.85082992359175</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762478</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="L4" t="n">
-        <v>18.75638553844191</v>
+        <v>18.75638553844194</v>
       </c>
       <c r="M4" t="n">
-        <v>36.78436775500258</v>
+        <v>36.78436775500263</v>
       </c>
       <c r="N4" t="n">
-        <v>54.81234997156324</v>
+        <v>54.81234997156334</v>
       </c>
       <c r="O4" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.84033218812391</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="R4" t="n">
-        <v>54.44630890829464</v>
+        <v>72.84033218812404</v>
       </c>
       <c r="S4" t="n">
-        <v>54.44630890829464</v>
+        <v>56.63887648325039</v>
       </c>
       <c r="T4" t="n">
-        <v>54.44630890829464</v>
+        <v>38.24485320342109</v>
       </c>
       <c r="U4" t="n">
-        <v>54.44630890829464</v>
+        <v>19.85082992359179</v>
       </c>
       <c r="V4" t="n">
-        <v>54.44630890829464</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="W4" t="n">
-        <v>54.44630890829464</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="X4" t="n">
-        <v>54.44630890829464</v>
+        <v>1.456806643762481</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.24485320342102</v>
+        <v>1.456806643762481</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5795743543409</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="F5" t="n">
-        <v>54.28158745825545</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="G5" t="n">
         <v>3.98360056216997</v>
@@ -4568,16 +4568,16 @@
         <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
-        <v>46.41914195758014</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>62.2614493974929</v>
+        <v>53.28065751902335</v>
       </c>
       <c r="M5" t="n">
-        <v>111.5585063543463</v>
+        <v>102.5777144758767</v>
       </c>
       <c r="N5" t="n">
-        <v>160.8555633111997</v>
+        <v>151.8747714327301</v>
       </c>
       <c r="O5" t="n">
         <v>199.1800281084985</v>
@@ -4601,16 +4601,16 @@
         <v>199.1800281084985</v>
       </c>
       <c r="V5" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W5" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X5" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.5453696056924</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="C6" t="n">
-        <v>151.5453696056924</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="D6" t="n">
-        <v>151.5453696056924</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="E6" t="n">
-        <v>151.5453696056924</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F6" t="n">
-        <v>104.5795743543409</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4650,13 +4650,13 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>50.30614171732423</v>
+        <v>22.54896088111074</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N6" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O6" t="n">
         <v>170.4401317516709</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X6" t="n">
-        <v>151.5453696056924</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="Y6" t="n">
-        <v>151.5453696056924</v>
+        <v>104.5795743543409</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.8775612504264</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="C7" t="n">
-        <v>154.8775612504264</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="D7" t="n">
-        <v>104.5795743543409</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="E7" t="n">
-        <v>104.5795743543409</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="F7" t="n">
-        <v>54.28158745825545</v>
+        <v>97.47632513543981</v>
       </c>
       <c r="G7" t="n">
-        <v>54.28158745825545</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="H7" t="n">
-        <v>54.28158745825545</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="I7" t="n">
-        <v>3.98360056216997</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="J7" t="n">
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98360056216997</v>
+        <v>53.28065751902335</v>
       </c>
       <c r="L7" t="n">
-        <v>53.28065751902335</v>
+        <v>102.5777144758767</v>
       </c>
       <c r="M7" t="n">
-        <v>102.5777144758767</v>
+        <v>151.8747714327301</v>
       </c>
       <c r="N7" t="n">
-        <v>149.8829711516451</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="O7" t="n">
         <v>199.1800281084985</v>
@@ -4753,22 +4753,22 @@
         <v>172.6788242516383</v>
       </c>
       <c r="T7" t="n">
-        <v>172.6788242516383</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="U7" t="n">
-        <v>172.6788242516383</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="V7" t="n">
-        <v>172.6788242516383</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="W7" t="n">
-        <v>172.6788242516383</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="X7" t="n">
-        <v>172.6788242516383</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.8775612504264</v>
+        <v>122.3808373555528</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="C8" t="n">
-        <v>305.2694365497923</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="D8" t="n">
-        <v>305.2694365497923</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="E8" t="n">
-        <v>235.4592352845871</v>
+        <v>142.6835685788049</v>
       </c>
       <c r="F8" t="n">
+        <v>135.7380678296014</v>
+      </c>
+      <c r="G8" t="n">
         <v>122.2141240472905</v>
       </c>
-      <c r="G8" t="n">
-        <v>8.969012809993892</v>
-      </c>
       <c r="H8" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="I8" t="n">
         <v>8.969012809993892</v>
@@ -4808,7 +4808,7 @@
         <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4826,28 +4826,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R8" t="n">
-        <v>418.5145477870889</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S8" t="n">
-        <v>418.5145477870889</v>
+        <v>335.205529262398</v>
       </c>
       <c r="T8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="U8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="V8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="W8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="X8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
       <c r="Y8" t="n">
-        <v>418.5145477870889</v>
+        <v>255.9286798161015</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>338.8378345311044</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="C9" t="n">
-        <v>338.8378345311044</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="D9" t="n">
-        <v>338.8378345311044</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="E9" t="n">
-        <v>225.5927232938078</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="F9" t="n">
-        <v>112.3476120565112</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="G9" t="n">
-        <v>112.3476120565112</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993892</v>
@@ -4884,19 +4884,19 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>202.927645827546</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>441.223936157822</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996946</v>
@@ -4908,25 +4908,25 @@
         <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>411.5072838557631</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="T9" t="n">
-        <v>338.8378345311044</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="U9" t="n">
-        <v>338.8378345311044</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="V9" t="n">
-        <v>338.8378345311044</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="W9" t="n">
-        <v>338.8378345311044</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="X9" t="n">
-        <v>338.8378345311044</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="Y9" t="n">
-        <v>338.8378345311044</v>
+        <v>63.65296969337254</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320.7928375242964</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="C10" t="n">
-        <v>207.5477262869998</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="D10" t="n">
         <v>155.2023305391979</v>
@@ -4948,10 +4948,10 @@
         <v>155.2023305391979</v>
       </c>
       <c r="F10" t="n">
-        <v>41.9572193019013</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="G10" t="n">
-        <v>41.9572193019013</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="H10" t="n">
         <v>41.9572193019013</v>
@@ -4966,10 +4966,10 @@
         <v>85.67486684193852</v>
       </c>
       <c r="L10" t="n">
-        <v>115.4760399286714</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M10" t="n">
-        <v>226.4675734523458</v>
+        <v>307.6579338892873</v>
       </c>
       <c r="N10" t="n">
         <v>337.4591069760202</v>
@@ -4990,22 +4990,22 @@
         <v>434.037948761593</v>
       </c>
       <c r="T10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="U10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="V10" t="n">
-        <v>434.037948761593</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="W10" t="n">
-        <v>434.037948761593</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="X10" t="n">
-        <v>434.037948761593</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="Y10" t="n">
-        <v>434.037948761593</v>
+        <v>155.2023305391979</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1976.204921733553</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1523.222118183414</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>779.1681669784197</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389511</v>
+        <v>779.1681669784197</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2739.810011970445</v>
+        <v>3042.389565424839</v>
       </c>
       <c r="X11" t="n">
-        <v>2366.344253709365</v>
+        <v>2668.92380716376</v>
       </c>
       <c r="Y11" t="n">
-        <v>1976.204921733553</v>
+        <v>2278.784475187948</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,7 +5121,7 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158135</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.0651425065844</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>573.1289595786775</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5203,10 +5203,10 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,10 +5218,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
         <v>1735.608663915319</v>
@@ -5233,16 +5233,16 @@
         <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046017</v>
+        <v>970.0546934046013</v>
       </c>
       <c r="W13" t="n">
-        <v>970.0546934046017</v>
+        <v>680.6375233676407</v>
       </c>
       <c r="X13" t="n">
-        <v>742.0651425065844</v>
+        <v>452.6479724696234</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.0651425065844</v>
+        <v>231.8553933260933</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2307.455433214419</v>
+        <v>1978.382226126758</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.492916274007</v>
+        <v>1609.419709186346</v>
       </c>
       <c r="D14" t="n">
-        <v>1580.227217667257</v>
+        <v>1609.419709186346</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.438965069012</v>
+        <v>1223.631456588102</v>
       </c>
       <c r="F14" t="n">
-        <v>783.453060279404</v>
+        <v>812.6455517984942</v>
       </c>
       <c r="G14" t="n">
-        <v>368.7127392273495</v>
+        <v>397.9052307464397</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169306</v>
+        <v>103.7230475307834</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169306</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773526</v>
+        <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720056001</v>
+        <v>666.2644720055982</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645701</v>
+        <v>1168.668140645699</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275288</v>
+        <v>1759.358462275285</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235393</v>
+        <v>2364.22057923539</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163077</v>
+        <v>2922.039463163073</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140407</v>
+        <v>3363.623974140402</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049517</v>
+        <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584653</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045198</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.281671577579</v>
+        <v>3522.00394811703</v>
       </c>
       <c r="U14" t="n">
-        <v>3419.281671577579</v>
+        <v>3481.355811697886</v>
       </c>
       <c r="V14" t="n">
-        <v>3088.218784234009</v>
+        <v>3481.355811697886</v>
       </c>
       <c r="W14" t="n">
-        <v>3071.06052345131</v>
+        <v>3128.587156427771</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.594765190231</v>
+        <v>2755.121398166692</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.455433214419</v>
+        <v>2364.98206619088</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718615</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169306</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J15" t="n">
-        <v>74.53055601169306</v>
+        <v>184.6629209807617</v>
       </c>
       <c r="K15" t="n">
-        <v>340.9191340937602</v>
+        <v>451.0514990628285</v>
       </c>
       <c r="L15" t="n">
-        <v>745.4339928726408</v>
+        <v>855.5663578417086</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.840621506597</v>
+        <v>1346.972986475664</v>
       </c>
       <c r="N15" t="n">
-        <v>1755.661966290182</v>
+        <v>1865.794331259249</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.062341591416</v>
+        <v>2037.254452037593</v>
       </c>
       <c r="P15" t="n">
-        <v>2551.820460848997</v>
+        <v>2381.012571295174</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>427.3523448981115</v>
+        <v>388.3593431341573</v>
       </c>
       <c r="C16" t="n">
-        <v>258.4161619702046</v>
+        <v>219.4231602062504</v>
       </c>
       <c r="D16" t="n">
-        <v>242.0844109553437</v>
+        <v>219.4231602062504</v>
       </c>
       <c r="E16" t="n">
-        <v>242.0844109553437</v>
+        <v>219.4231602062504</v>
       </c>
       <c r="F16" t="n">
-        <v>242.0844109553437</v>
+        <v>219.4231602062504</v>
       </c>
       <c r="G16" t="n">
-        <v>74.53055601169306</v>
+        <v>219.4231602062504</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169306</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169306</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525474</v>
+        <v>129.9765865525471</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923175</v>
+        <v>350.9282837923171</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553111</v>
+        <v>689.1968198553102</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479733</v>
+        <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229308</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776859</v>
+        <v>1739.964067776857</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135874</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="S16" t="n">
-        <v>1890.979338613559</v>
+        <v>1890.979338613558</v>
       </c>
       <c r="T16" t="n">
-        <v>1890.979338613559</v>
+        <v>1669.849281277322</v>
       </c>
       <c r="U16" t="n">
-        <v>1601.884598012746</v>
+        <v>1380.754540676509</v>
       </c>
       <c r="V16" t="n">
-        <v>1347.200109806859</v>
+        <v>1126.070052470622</v>
       </c>
       <c r="W16" t="n">
-        <v>1057.782939769899</v>
+        <v>836.652882433661</v>
       </c>
       <c r="X16" t="n">
-        <v>829.7933888718813</v>
+        <v>609.1519222776874</v>
       </c>
       <c r="Y16" t="n">
-        <v>609.0008097283512</v>
+        <v>388.3593431341573</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216582</v>
@@ -5501,7 +5501,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162839</v>
@@ -5516,49 +5516,49 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
         <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5659,13 +5659,13 @@
         <v>501.6849958039799</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511625</v>
@@ -5674,16 +5674,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
@@ -5692,7 +5692,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352543</v>
@@ -5707,10 +5707,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073042</v>
@@ -5738,25 +5738,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
@@ -5771,13 +5771,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283565</v>
@@ -5786,13 +5786,13 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
         <v>2476.13298385146</v>
@@ -5823,31 +5823,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857001</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
         <v>857.3827676902788</v>
@@ -5923,16 +5923,16 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
         <v>2333.272818966196</v>
@@ -5944,10 +5944,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073043</v>
@@ -5972,49 +5972,49 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6032,7 +6032,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C25" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039792</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315375</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749433</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897921</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042791</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443619</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902794</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,7 +6236,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6248,28 +6248,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477708</v>
+        <v>735.8557341477705</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609034</v>
       </c>
       <c r="E28" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039788</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,22 +6397,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237501</v>
@@ -6424,7 +6424,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.58138725498</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796665</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162839</v>
@@ -6461,19 +6461,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,31 +6482,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="K30" t="n">
-        <v>301.7509472448909</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>326.515925275411</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>875.4343898857001</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042795</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443623</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902797</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127669</v>
@@ -6683,19 +6683,19 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076839</v>
@@ -6722,25 +6722,25 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
         <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
         <v>2476.13298385146</v>
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>388.0214583249807</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502094</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
         <v>2333.272818966196</v>
@@ -6923,10 +6923,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511625</v>
@@ -6947,7 +6947,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -6968,13 +6968,13 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501803</v>
@@ -7014,28 +7014,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
@@ -7096,22 +7096,22 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7123,10 +7123,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7154,31 +7154,31 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162844</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511675</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
@@ -7205,19 +7205,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
         <v>2392.455631028688</v>
@@ -7391,25 +7391,25 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
         <v>766.6831886951454</v>
@@ -7439,22 +7439,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1059.51735386646</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.372701792862</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2143.777656741112</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G43" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897927</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042803</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443629</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902804</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796678</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
@@ -7649,7 +7649,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7661,7 +7661,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7679,19 +7679,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609034</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039788</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
@@ -7804,52 +7804,52 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443618</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.11385834810842</v>
+        <v>60.90377530107743</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996279</v>
+        <v>58.23802601699377</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986437</v>
+        <v>21.45378102838463</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.070085188520316</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855407</v>
+        <v>27.67667403855404</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621871</v>
+        <v>69.44336957621869</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587601</v>
+        <v>55.281797555876</v>
       </c>
       <c r="K3" t="n">
-        <v>15.5411297792436</v>
+        <v>15.54112977924359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957047</v>
+        <v>43.30284318957045</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,19 +8140,19 @@
         <v>55.24219515018312</v>
       </c>
       <c r="L4" t="n">
-        <v>57.95743621907601</v>
+        <v>57.95743621907602</v>
       </c>
       <c r="M4" t="n">
-        <v>57.60265575363964</v>
+        <v>57.60265575363965</v>
       </c>
       <c r="N4" t="n">
-        <v>48.72909356691281</v>
+        <v>48.72909356691282</v>
       </c>
       <c r="O4" t="n">
-        <v>66.91760054109307</v>
+        <v>66.91760054109308</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728798</v>
+        <v>60.93221199728796</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,10 +8216,10 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>60.01102720363479</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>33.792676279738</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9.071506947949025</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
@@ -8374,7 +8374,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>95.66285413274987</v>
       </c>
       <c r="L7" t="n">
         <v>78.28218310839884</v>
@@ -8383,10 +8383,10 @@
         <v>76.53954504419404</v>
       </c>
       <c r="N7" t="n">
-        <v>65.95480537679344</v>
+        <v>65.95480537679347</v>
       </c>
       <c r="O7" t="n">
-        <v>87.09780125070267</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P7" t="n">
         <v>51.173501012562</v>
@@ -8614,13 +8614,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>37.34101893964862</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4136727881176</v>
+        <v>26.40320770029784</v>
       </c>
       <c r="O10" t="n">
         <v>129.2143182548924</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>129.4860509221523</v>
+        <v>68.8568750949245</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696651</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.67482388700448</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389934</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>210.7272122789949</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>332.2542905425419</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>132.4470395135001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434399</v>
+        <v>91.91693778434403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396091</v>
+        <v>82.30038209396098</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.4837048346230972</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.836930773104541e-13</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.008970684779342e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>8.348877145181177e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>950550.8454352906</v>
+        <v>950550.8454352908</v>
       </c>
     </row>
     <row r="6">
@@ -26314,31 +26314,31 @@
         <v>307890.6636991062</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
-        <v>255747.8242281904</v>
+        <v>255747.8242281905</v>
       </c>
       <c r="F2" t="n">
-        <v>269546.2291049206</v>
+        <v>269546.2291049204</v>
       </c>
       <c r="G2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="H2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="J2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="K2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991061</v>
@@ -26347,7 +26347,7 @@
         <v>307890.6636991061</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="O2" t="n">
         <v>307890.6636991061</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321809</v>
+        <v>345405.597032181</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.6313487665</v>
+        <v>50948.63134876644</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
@@ -26375,10 +26375,10 @@
         <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654405</v>
+        <v>93369.88484654298</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975329</v>
+        <v>143964.0818975339</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757339</v>
+        <v>4764.558968757549</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908784</v>
+        <v>8128.948714908793</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194622</v>
+        <v>41060.19902194623</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383014</v>
+        <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.154386132</v>
+        <v>24549.15438613164</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875933</v>
+        <v>31434.59456875968</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,28 +26436,28 @@
         <v>44619.42690608386</v>
       </c>
       <c r="I4" t="n">
-        <v>44619.42690608387</v>
+        <v>44619.42690608386</v>
       </c>
       <c r="J4" t="n">
-        <v>44619.42690608381</v>
+        <v>44619.42690608386</v>
       </c>
       <c r="K4" t="n">
         <v>44619.42690608386</v>
       </c>
       <c r="L4" t="n">
-        <v>44619.42690608386</v>
+        <v>44619.42690608388</v>
       </c>
       <c r="M4" t="n">
-        <v>44619.42690608386</v>
+        <v>44619.42690608387</v>
       </c>
       <c r="N4" t="n">
-        <v>44619.42690608386</v>
+        <v>44619.42690608381</v>
       </c>
       <c r="O4" t="n">
-        <v>44619.42690608384</v>
+        <v>44619.42690608383</v>
       </c>
       <c r="P4" t="n">
-        <v>44619.42690608383</v>
+        <v>44619.42690608385</v>
       </c>
     </row>
     <row r="5">
@@ -26479,25 +26479,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390711</v>
+        <v>82183.39720390702</v>
       </c>
       <c r="G5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-427033.7652888175</v>
+        <v>-427033.7652888176</v>
       </c>
       <c r="C6" t="n">
-        <v>-120101.516509204</v>
+        <v>-120101.5165092041</v>
       </c>
       <c r="D6" t="n">
-        <v>-134340.0854349091</v>
+        <v>-134340.085434909</v>
       </c>
       <c r="E6" t="n">
-        <v>-539769.4408683218</v>
+        <v>-540117.0597981279</v>
       </c>
       <c r="F6" t="n">
-        <v>80511.0125838058</v>
+        <v>80255.38301984558</v>
       </c>
       <c r="G6" t="n">
-        <v>24200.72079333395</v>
+        <v>24200.72079333311</v>
       </c>
       <c r="H6" t="n">
-        <v>168164.8026908668</v>
+        <v>168164.802690867</v>
       </c>
       <c r="I6" t="n">
-        <v>168164.8026908668</v>
+        <v>168164.8026908672</v>
       </c>
       <c r="J6" t="n">
-        <v>163400.2437221097</v>
+        <v>163400.2437221094</v>
       </c>
       <c r="K6" t="n">
         <v>160035.8539759581</v>
@@ -26552,13 +26552,13 @@
         <v>127104.6036689207</v>
       </c>
       <c r="M6" t="n">
-        <v>-11084.84224743448</v>
+        <v>-11084.84224743453</v>
       </c>
       <c r="N6" t="n">
-        <v>143615.6483047349</v>
+        <v>143615.6483047355</v>
       </c>
       <c r="O6" t="n">
-        <v>136730.2081221076</v>
+        <v>136730.2081221073</v>
       </c>
       <c r="P6" t="n">
         <v>168164.8026908669</v>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221392</v>
@@ -26707,25 +26707,25 @@
         <v>31.61020235221392</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221388</v>
       </c>
-      <c r="K2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221391</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221392</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228082</v>
+        <v>352.1154025228083</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808274</v>
+        <v>1171.567643808273</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,10 +26796,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461633</v>
+        <v>931.6319501461621</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228082</v>
+        <v>352.1154025228083</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475983</v>
+        <v>44.74454074475977</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,10 +26969,10 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.7909432149761</v>
+        <v>81.79094321497519</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118486</v>
+        <v>106.5922268118495</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009365</v>
+        <v>31.58492398009362</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.288795277369</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438706</v>
+        <v>100.2304947438694</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427898</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009365</v>
+        <v>31.58492398009384</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779925</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773688</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438706</v>
+        <v>100.2304947438694</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427898</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009365</v>
+        <v>31.58492398009362</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.288795277369</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438706</v>
+        <v>100.2304947438694</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427898</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7202870252308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>388.6659626946804</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8477570606858</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918005</v>
+        <v>306.7678271447695</v>
       </c>
       <c r="I2" t="n">
         <v>155.9033104517705</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.95024697140755</v>
+        <v>60.95024697140754</v>
       </c>
       <c r="S2" t="n">
         <v>176.7634676365429</v>
@@ -27433,16 +27433,16 @@
         <v>216.8993262493833</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2324097633065</v>
+        <v>233.0223267162755</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>331.030885670382</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>367.5788577391548</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,10 +27473,10 @@
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>88.88130387777323</v>
+        <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>45.11007895717613</v>
+        <v>45.1100789571761</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.92373565171711</v>
+        <v>53.13381869874808</v>
       </c>
       <c r="S3" t="n">
         <v>157.6151642200256</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>233.4849001138886</v>
       </c>
       <c r="X3" t="n">
         <v>187.5629021564465</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>189.6432546294795</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4053899711814</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3560171571881</v>
       </c>
       <c r="H4" t="n">
-        <v>138.3716982527478</v>
+        <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
         <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>48.46735248683869</v>
+        <v>48.46735248683868</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.99261747075035</v>
+        <v>32.99261747075034</v>
       </c>
       <c r="R4" t="n">
-        <v>130.5330988075515</v>
+        <v>148.7431818545824</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839194</v>
+        <v>196.9114974360945</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2325691137615</v>
+        <v>207.0224860667305</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2843950546034</v>
+        <v>268.0743120075724</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>233.927560276797</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.5452122042699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>315.4778847438829</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>332.1353630451372</v>
       </c>
       <c r="F5" t="n">
         <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>363.9123136306533</v>
+        <v>369.8478784682866</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27673,7 +27673,7 @@
         <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
-        <v>283.8928162806436</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.4429316289289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>98.57307509454596</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>86.69488686188785</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>10.21152625211678</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.9135430139861</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>98.82046599108773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>95.62604099580662</v>
+        <v>120.7655809250194</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>117.4803232533106</v>
       </c>
       <c r="H7" t="n">
         <v>155.8644016137399</v>
       </c>
       <c r="I7" t="n">
-        <v>84.13394835375473</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>175.0928090677838</v>
       </c>
       <c r="U7" t="n">
         <v>286.2799939522351</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.9614029808951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.1602316460839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>312.8182708197087</v>
+        <v>269.8177099473381</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>24.57246563410433</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>29.63673178547965</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101212</v>
+        <v>53.29137858519758</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>136.2330884077895</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454486</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>40.54833922112496</v>
       </c>
       <c r="T9" t="n">
-        <v>124.0941401336791</v>
+        <v>83.92423484016754</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>197.7351945574818</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.71932005701365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.13416097370418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.79353122788849</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>33.3083878980076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>42.48105001084159</v>
       </c>
       <c r="I10" t="n">
         <v>129.630951895051</v>
@@ -28062,19 +28062,19 @@
         <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>112.1644964662546</v>
       </c>
       <c r="U10" t="n">
         <v>286.2721982989959</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>140.0249831989044</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>173.8877135987133</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="20">
@@ -29056,7 +29056,7 @@
         <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221454</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
         <v>31.61020235221392</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221335</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221321</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221569</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31042,13 +31042,13 @@
         <v>1.415539306624354</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396666</v>
+        <v>14.49689192396667</v>
       </c>
       <c r="I2" t="n">
         <v>54.57257911863545</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256088</v>
+        <v>120.1421292256089</v>
       </c>
       <c r="K2" t="n">
         <v>180.0619080750178</v>
@@ -31063,7 +31063,7 @@
         <v>247.6231466436219</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490042</v>
+        <v>238.5024483490043</v>
       </c>
       <c r="P2" t="n">
         <v>203.5563217167155</v>
@@ -31072,13 +31072,13 @@
         <v>152.8623202982308</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974213</v>
+        <v>88.91887096974214</v>
       </c>
       <c r="S2" t="n">
         <v>32.25660194970249</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748111</v>
+        <v>6.196523314748112</v>
       </c>
       <c r="U2" t="n">
         <v>0.1132431445299483</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660404</v>
+        <v>0.7573802997660405</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898338</v>
+        <v>7.314699210898339</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720797</v>
+        <v>26.07647084720798</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079068</v>
+        <v>71.5558291107907</v>
       </c>
       <c r="K3" t="n">
         <v>122.3003091951154</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269052</v>
+        <v>156.028701895712</v>
       </c>
       <c r="M3" t="n">
         <v>160.3441169690493</v>
       </c>
       <c r="N3" t="n">
-        <v>138.1640227923879</v>
+        <v>149.5517951303643</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914754</v>
+        <v>160.8063274914755</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211134</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645105</v>
+        <v>96.67893089645106</v>
       </c>
       <c r="R3" t="n">
         <v>47.02401545389505</v>
@@ -31157,10 +31157,10 @@
         <v>14.06800688381219</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004345</v>
+        <v>3.052774103004346</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039741</v>
+        <v>0.04982765130039742</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706376</v>
+        <v>0.6349622012706377</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660765</v>
+        <v>5.645391207660766</v>
       </c>
       <c r="I4" t="n">
         <v>19.09504510730246</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983408</v>
+        <v>44.89182762983409</v>
       </c>
       <c r="K4" t="n">
         <v>73.77106302035226</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800009</v>
+        <v>94.40156217800011</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099641</v>
+        <v>99.53321124099642</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535138</v>
+        <v>97.16653394535139</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778071</v>
+        <v>89.74902095778073</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185964</v>
+        <v>76.79579205185965</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094404</v>
+        <v>53.16942578094405</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258703</v>
+        <v>28.55020952258704</v>
       </c>
       <c r="S4" t="n">
         <v>11.06565945305284</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314519996</v>
+        <v>2.713020314519997</v>
       </c>
       <c r="U4" t="n">
         <v>0.03463430188748937</v>
@@ -31370,7 +31370,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3448253911411</v>
+        <v>157.3072689909255</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
@@ -31379,7 +31379,7 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>164.3536950713535</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
         <v>163.0046057545602</v>
@@ -31604,7 +31604,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
@@ -31613,13 +31613,13 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6986083828519</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.2741087697571</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.7098196736011</v>
+        <v>4.709819673601096</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226727</v>
+        <v>48.23444073226724</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665066</v>
+        <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223017</v>
+        <v>399.7400575223014</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058363</v>
+        <v>599.1067243058359</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418061</v>
+        <v>743.2448681418056</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622097</v>
+        <v>827.003123762209</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098288</v>
+        <v>840.3848989098282</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304578</v>
+        <v>793.5516295304573</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384306</v>
+        <v>677.2779563384302</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775911</v>
+        <v>508.6075392775907</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718454</v>
+        <v>295.8532100718451</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121852</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118882</v>
+        <v>20.61723562118881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880879</v>
+        <v>0.3767855738880876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681949</v>
+        <v>2.519975686681947</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137567</v>
+        <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146185</v>
+        <v>86.76232079146178</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>238.0824397667361</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744268</v>
+        <v>406.9208107744265</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332889</v>
+        <v>547.1552472332885</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755095</v>
+        <v>638.5043658755089</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111969</v>
+        <v>655.4036765111964</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062968</v>
+        <v>315.7882856346913</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068364</v>
+        <v>481.204830906836</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.1394641284234</v>
+        <v>321.6726858999622</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762301</v>
+        <v>46.80744312762297</v>
       </c>
       <c r="T15" t="n">
         <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238125</v>
+        <v>0.1657878741238124</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244429</v>
+        <v>2.112662964244427</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482776</v>
+        <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291431</v>
+        <v>63.53353714291426</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720811</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913073</v>
+        <v>245.4530243913071</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023036</v>
+        <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.169522658788</v>
+        <v>331.1695226587878</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102409</v>
+        <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824763</v>
+        <v>298.6153069824761</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118898</v>
+        <v>255.5169825118896</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150494</v>
+        <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320858</v>
+        <v>94.99300928320851</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869608</v>
+        <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408012</v>
+        <v>9.026832665408005</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860599</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,19 +32312,19 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O18" t="n">
         <v>654.1164009578284</v>
@@ -32333,7 +32333,7 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,16 +32549,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N21" t="n">
         <v>715.033982716063</v>
@@ -32570,7 +32570,7 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
         <v>696.597129487967</v>
@@ -33038,16 +33038,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>356.801578640798</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>382.5296487700709</v>
       </c>
       <c r="M30" t="n">
         <v>696.597129487967</v>
@@ -33284,7 +33284,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33497,31 +33497,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
         <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>609.4551991040378</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33734,13 +33734,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
-        <v>356.801578640798</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
         <v>696.597129487967</v>
@@ -33749,16 +33749,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>593.4871659531818</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
         <v>696.597129487967</v>
@@ -33986,10 +33986,10 @@
         <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,31 +34208,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>668.1323322018327</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34445,10 +34445,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
@@ -34460,16 +34460,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>414.6940864885831</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P45" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.21008304703098</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.070085188520284</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="O2" t="n">
-        <v>17.47432211583781</v>
+        <v>8.404236927317555</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703098</v>
+        <v>17.47432211583784</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="N3" t="n">
-        <v>6.822310709054612</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="P3" t="n">
-        <v>10.6520114067832</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>17.47432211583781</v>
+        <v>17.47432211583784</v>
       </c>
       <c r="M4" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="O4" t="n">
-        <v>18.21008304703098</v>
+        <v>18.21008304703101</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>42.86418322768704</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738662</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,7 +34948,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>47.78308755128121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.79044561126693</v>
+        <v>18.75288921105129</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
@@ -35027,7 +35027,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>21.75745062690901</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
         <v>29.03019834022993</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="L7" t="n">
         <v>49.79500702712463</v>
@@ -35103,10 +35103,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N7" t="n">
-        <v>47.78308755128119</v>
+        <v>47.78308755128121</v>
       </c>
       <c r="O7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
@@ -35261,13 +35261,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>85.35689629951858</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426831</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,13 +35334,13 @@
         <v>77.4806606383279</v>
       </c>
       <c r="L10" t="n">
-        <v>30.10219503710387</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N10" t="n">
-        <v>112.1126601249237</v>
+        <v>30.10219503710387</v>
       </c>
       <c r="O10" t="n">
         <v>112.1126601249237</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956154</v>
+        <v>218.6941529956151</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608558</v>
+        <v>379.0168732608553</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718189</v>
+        <v>507.4784531718183</v>
       </c>
       <c r="M14" t="n">
-        <v>596.656890534937</v>
+        <v>596.6568905349363</v>
       </c>
       <c r="N14" t="n">
-        <v>610.971835313238</v>
+        <v>610.9718353132373</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087711</v>
+        <v>563.4534181087705</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831611</v>
+        <v>446.0449605831606</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031417</v>
+        <v>286.3018494031412</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771323</v>
+        <v>80.267672257713</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.2448131000694</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000678</v>
+        <v>269.0793718000675</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534148</v>
+        <v>408.6008674534143</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534912</v>
+        <v>496.3703319534906</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278636</v>
+        <v>524.0619644278631</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618524</v>
+        <v>173.1920411902469</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925061</v>
+        <v>347.2304234925057</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.157690042401914</v>
+        <v>181.6909118139407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540835</v>
+        <v>56.00609145540824</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654244</v>
+        <v>223.1835325654242</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626198</v>
+        <v>341.6853899626195</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206286</v>
+        <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894694</v>
+        <v>367.4272239894692</v>
       </c>
       <c r="O16" t="n">
-        <v>323.200434896516</v>
+        <v>323.2004348965157</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767832</v>
+        <v>252.7955417767833</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335503</v>
+        <v>90.74467096335489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O18" t="n">
         <v>511.520156513384</v>
@@ -35981,7 +35981,7 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
         <v>428.4516387010908</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327297</v>
@@ -36218,7 +36218,7 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193564</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>218.960139666439</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>243.9752689901967</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36932,7 +36932,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
         <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>467.3211651820195</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414972</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
-        <v>218.960139666439</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37397,16 +37397,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895093</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>454.9327861733077</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,10 +37634,10 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553052</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>525.9982982798143</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193576</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817348</v>
@@ -37947,7 +37947,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>272.0978420441387</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817348</v>
